--- a/Stopwatch Test Plan.xlsx
+++ b/Stopwatch Test Plan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Tester's Name:</t>
   </si>
@@ -107,7 +107,7 @@
 </t>
     </r>
     <r>
-      <t>The main screen:</t>
+      <t>The stowatch screen:</t>
     </r>
     <r>
       <rPr>
@@ -127,6 +127,19 @@
       <rPr/>
       <t xml:space="preserve"> 00:00:00 .</t>
     </r>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Test Scenario Tittle</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First run of the stopwatch
+</t>
   </si>
   <si>
     <r>
@@ -223,23 +236,6 @@
     </r>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Test Scenario Tittle</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First run of the stopwatch for 10 sec
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission pop-up
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -247,17 +243,9 @@
       <t>1. Test case - Allow permission when open the app for the first time</t>
     </r>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-      </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <t xml:space="preserve">Input:
 - In a permission dialog box tap the ALLOW button
-Output:
+Result:
 - The Introduction dialog box appears
 </t>
     </r>
@@ -269,9 +257,8 @@
     </r>
     <r>
       <t xml:space="preserve">
-Input:
 - In a Introduction dialog box tap 'Later' button
-Output:
+Result:
 - A user is redirected to the main screen of The Stopwatch 2 app
 </t>
     </r>
@@ -279,16 +266,110 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">3. Test case - Run the stopwatch first time for 10 sec
+      <t>3. Test case - Run the stopwatch first time</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+- On the main page tap the watch
+- Tap the watch again
+Results:
+- The stopwatch sceen should display the total counting time value on the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reset time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Test case</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+- Complete TC3 from Scenario 1.
+- Tap and hold the stopwatch screen.
 </t>
     </r>
     <r>
-      <t>Input:
-- On the main page tap the watch and wait for 10 sec
-- Tap the watch again
-Output:
-- The stopwatch box should display the total counting time value on the screen.</t>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Result:</t>
     </r>
+    <r>
+      <t xml:space="preserve">
+- The stopwatch should display the initial values.</t>
+    </r>
+  </si>
+  <si>
+    <t>Run the stopwatch starting with a point of time when the previous stopwatch run was ended</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Test case</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+-  Complete TC3 from Scenario 1.
+- On the main page tap the stopwatch box to run the stopwatch
+- Tap the stopwatch box again to stop the time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Result:</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+- The stopwatch box should display the total counting time value from Scenario 1 + Scenario 3 on the screen                 </t>
+    </r>
+  </si>
+  <si>
+    <t>Change shape of the stopwatch screen to square</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">- Tap V button on the top of the stopwatch screen
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">On the settings panel on the third row tap on square figure (first option from the left)
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Result:
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>The main screen will change the shape to square</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Permission pop-up
+</t>
+  </si>
+  <si>
+    <t>Change shape of the stopwatch screen to round</t>
   </si>
   <si>
     <r>
@@ -337,26 +418,30 @@
     </r>
   </si>
   <si>
-    <t>Reset time</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">1. Test case
+      <t xml:space="preserve">Test case
 </t>
     </r>
     <r>
-      <t>Input:
-- Complete TC3 from Scenario 1.
-- Tap and hold the stopwatch box on the screen.
-Output:
-- The stopwatch should display the initial values.</t>
+      <rPr/>
+      <t>- Tap V button on the top of the stopwatch screen
+- On the settings panel on the third row tap on round figure (second option from the left)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+Result:
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>The main screen will change the shape to round</t>
     </r>
   </si>
   <si>
     <t>Introduction pop-up message</t>
+  </si>
+  <si>
+    <t>Change shape of the stopwatch screen to rounded square</t>
   </si>
   <si>
     <r>
@@ -412,30 +497,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Second run of the stopwatch for 30 sec
+    <r>
+      <t xml:space="preserve">Test case
 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>1. Test case - Run the stopwatch for 30 sec</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Input:
-- On the main page tap the stopwatch box and wait for 30 sec
-- Tap the stopwatch box again
-Output:
-- The stopwatch box should display the total counting time value on the screen.</t>
+      <rPr/>
+      <t xml:space="preserve">- Tap V button on the top of the stopwatch screen
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">On the settings panel on the third row tap rounded square (second option from the right)
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Result:
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>The main screen will change the shape to rounded square</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
     <t>Basic Run with Initial Values</t>
   </si>
   <si>
-    <t>Run the stopwatch starting with the previously stop time</t>
+    <t>Change shape the stopwatch screen to full screen</t>
   </si>
   <si>
     <r>
@@ -457,20 +552,33 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>1. Test case - Run the stopwatch for for 15 sec</t>
+      <t xml:space="preserve">Test case
+</t>
     </r>
     <r>
-      <t xml:space="preserve">
-Input:
--  Complete TC1 from Scenario 3.
-- On the main page tap the stopwatch box and wait for 15 sec
-- Tap the stopwatch box again to stop the stopwatch
-Output:
-- The stopwatch box should display the total counting time value from Scenario 3 + Scenario 4 on the screen                 </t>
+      <rPr/>
+      <t xml:space="preserve">- Tap V button on the top of the stopwatch screen
+</t>
     </r>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">On the settings panel on the third row tap the first figure from the fight
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Result:
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>The main screen will merge with background</t>
+    </r>
+  </si>
+  <si>
+    <t>Change background mode</t>
   </si>
   <si>
     <t>Input:
@@ -479,12 +587,87 @@
 Output:
 The stopwatch should display the initial values.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Test case</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+- Tap V button on the top of the stopwatch screen
+- On the settings panel in the right bottom corner tap a black&amp;gray circle
+Result:
+The background  color will change to black                   </t>
+    </r>
+  </si>
+  <si>
+    <t>Change color of the stopwatch screen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">- Tap V button on the top of the stopwatch screen
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">On the settings panel on the first row tap color on a color panel
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Result:
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>The main screen will change color to a chosen color</t>
+    </r>
+  </si>
+  <si>
+    <t>Change color of digits</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">- Tap V button on the top of the stopwatch screen
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">On the settings panel on the second row tap color on a color panel
+</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Result:
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>The digits on the main screen will change color to a choosen color</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -502,10 +685,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -621,18 +800,18 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -868,7 +1047,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.57"/>
     <col customWidth="1" min="2" max="2" width="14.57"/>
-    <col customWidth="1" min="3" max="4" width="18.43"/>
+    <col customWidth="1" min="3" max="3" width="29.86"/>
+    <col customWidth="1" min="4" max="4" width="18.43"/>
     <col customWidth="1" min="5" max="5" width="28.29"/>
     <col customWidth="1" min="7" max="7" width="22.86"/>
   </cols>
@@ -1099,14 +1279,14 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1138,11 +1318,11 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="17" t="s">
-        <v>14</v>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1174,11 +1354,11 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="17" t="s">
-        <v>17</v>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1206,15 +1386,15 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="18">
+      <c r="A11" s="14">
         <v>3.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="17" t="s">
-        <v>21</v>
+      <c r="D11" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1246,11 +1426,11 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1281,9 +1461,13 @@
       <c r="A13" s="14">
         <v>5.0</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -1313,9 +1497,13 @@
       <c r="A14" s="14">
         <v>6.0</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -1345,9 +1533,13 @@
       <c r="A15" s="14">
         <v>7.0</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -1377,9 +1569,13 @@
       <c r="A16" s="14">
         <v>8.0</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -1409,9 +1605,13 @@
       <c r="A17" s="14">
         <v>9.0</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -1438,12 +1638,16 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="19">
+      <c r="A18" s="14">
         <v>10.0</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -1470,7 +1674,7 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1500,7 +1704,7 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1530,7 +1734,7 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1560,7 +1764,7 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1590,7 +1794,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -23911,31 +24115,31 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A6:G6"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
   </mergeCells>
@@ -24129,7 +24333,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -24191,14 +24395,14 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -24229,12 +24433,12 @@
       <c r="A9" s="14">
         <v>1.0</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>13</v>
+      <c r="B9" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -24265,12 +24469,12 @@
       <c r="A10" s="14">
         <v>2.0</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>18</v>
+      <c r="B10" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="17" t="s">
-        <v>19</v>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -24301,12 +24505,12 @@
       <c r="A11" s="14">
         <v>3.0</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
+      <c r="B11" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="17" t="s">
-        <v>24</v>
+      <c r="D11" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -24337,12 +24541,12 @@
       <c r="A12" s="14">
         <v>4.0</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>16</v>
+      <c r="B12" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="17" t="s">
-        <v>26</v>
+      <c r="D12" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -24373,9 +24577,9 @@
       <c r="A13" s="14">
         <v>5.0</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -24405,9 +24609,9 @@
       <c r="A14" s="14">
         <v>6.0</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -24437,9 +24641,9 @@
       <c r="A15" s="14">
         <v>7.0</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -24469,9 +24673,9 @@
       <c r="A16" s="14">
         <v>8.0</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
@@ -24501,9 +24705,9 @@
       <c r="A17" s="14">
         <v>9.0</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
@@ -24530,12 +24734,12 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>10.0</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
@@ -24562,12 +24766,12 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="19">
+      <c r="A19" s="20">
         <v>11.0</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
@@ -24594,12 +24798,12 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>12.0</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
@@ -24626,12 +24830,12 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>13.0</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
@@ -24658,12 +24862,12 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>14.0</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
@@ -24690,7 +24894,7 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -24720,7 +24924,7 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -24750,7 +24954,7 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -24780,7 +24984,7 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -24810,7 +25014,7 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -47131,41 +47335,41 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:G22">
     <cfRule type="expression" dxfId="0" priority="1">
